--- a/单词.xlsx
+++ b/单词.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="953">
   <si>
     <t>英语</t>
   </si>
@@ -1058,1905 +1058,2052 @@
     <t>早上</t>
   </si>
   <si>
+    <t>中午</t>
+  </si>
+  <si>
+    <t>晚上</t>
+  </si>
+  <si>
+    <t>夜晚</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>今天</t>
+  </si>
+  <si>
+    <t>tomorrow</t>
+  </si>
+  <si>
+    <t>明天</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>生日</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>假日;节日</t>
+  </si>
+  <si>
+    <t>Christmas</t>
+  </si>
+  <si>
+    <t>圣诞节</t>
+  </si>
+  <si>
+    <t>星期一</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>星期二</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>星期三</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>星期四</t>
+  </si>
+  <si>
+    <t>星期五</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>星期六</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>星期日</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>一月</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>二月</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>三月</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>四月</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>五月</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>六月</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>七月</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>八月</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>九月</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>十月</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>十一月</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>十二月</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>季节</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>春天</t>
+  </si>
+  <si>
+    <t>summer</t>
+  </si>
+  <si>
+    <t>夏天</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>秋天</t>
+  </si>
+  <si>
+    <t>winter</t>
+  </si>
+  <si>
+    <t>冬天</t>
+  </si>
+  <si>
+    <t>realtime</t>
+  </si>
+  <si>
+    <t>V哦泰姆</t>
+  </si>
+  <si>
+    <t>实时，即时</t>
+  </si>
+  <si>
+    <t>seconds</t>
+  </si>
+  <si>
+    <t>塞K死</t>
+  </si>
+  <si>
+    <t>秒</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>啊我</t>
+  </si>
+  <si>
+    <t>小时</t>
+  </si>
+  <si>
+    <t>minute</t>
+  </si>
+  <si>
+    <t>美累特</t>
+  </si>
+  <si>
+    <t>分钟</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>人们</t>
+  </si>
+  <si>
+    <t>boy</t>
+  </si>
+  <si>
+    <t>男孩</t>
+  </si>
+  <si>
+    <t>girl</t>
+  </si>
+  <si>
+    <t>女孩</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>中国人</t>
+  </si>
+  <si>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>医生</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>朋友</t>
+  </si>
+  <si>
+    <t>neighbor</t>
+  </si>
+  <si>
+    <t>邻居</t>
+  </si>
+  <si>
+    <t>chshier</t>
+  </si>
+  <si>
+    <t>出纳员</t>
+  </si>
+  <si>
+    <t>clerk</t>
+  </si>
+  <si>
+    <t>办事员</t>
+  </si>
+  <si>
+    <t>waitress</t>
+  </si>
+  <si>
+    <t>女服务员</t>
+  </si>
+  <si>
+    <t>waiter</t>
+  </si>
+  <si>
+    <t>男服务员</t>
+  </si>
+  <si>
+    <t>actor</t>
+  </si>
+  <si>
+    <t>男演员；演员</t>
+  </si>
+  <si>
+    <t>actress</t>
+  </si>
+  <si>
+    <t>女演员</t>
+  </si>
+  <si>
+    <t>businessman</t>
+  </si>
+  <si>
+    <t>商人</t>
+  </si>
+  <si>
+    <t>businesswoman</t>
+  </si>
+  <si>
+    <t>女商人</t>
+  </si>
+  <si>
+    <t>judge</t>
+  </si>
+  <si>
+    <t>法官</t>
+  </si>
+  <si>
+    <t>baby</t>
+  </si>
+  <si>
+    <t>婴儿</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>孩子</t>
+  </si>
+  <si>
+    <t>children</t>
+  </si>
+  <si>
+    <t>孩子们</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>男人</t>
+  </si>
+  <si>
+    <t>men</t>
+  </si>
+  <si>
+    <t>男人们</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>女人</t>
+  </si>
+  <si>
+    <t>women</t>
+  </si>
+  <si>
+    <t>女人们</t>
+  </si>
+  <si>
+    <t>Santa</t>
+  </si>
+  <si>
+    <t>圣诞老人</t>
+  </si>
+  <si>
+    <t>singer</t>
+  </si>
+  <si>
+    <t>歌手</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>形状</t>
+  </si>
+  <si>
+    <t>circle</t>
+  </si>
+  <si>
+    <t>圆圈</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>直线</t>
+  </si>
+  <si>
+    <t>reatangle</t>
+  </si>
+  <si>
+    <t>长方形</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>方形</t>
+  </si>
+  <si>
+    <t>triangle</t>
+  </si>
+  <si>
+    <t>三角形</t>
+  </si>
+  <si>
+    <t>breakfast</t>
+  </si>
+  <si>
+    <t>早饭</t>
+  </si>
+  <si>
+    <t>supper</t>
+  </si>
+  <si>
+    <t>晚饭</t>
+  </si>
+  <si>
+    <t>lunch</t>
+  </si>
+  <si>
+    <t>午饭</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>肉</t>
+  </si>
+  <si>
+    <t>pork</t>
+  </si>
+  <si>
+    <t>猪肉</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>鸡肉</t>
+  </si>
+  <si>
+    <t>beef</t>
+  </si>
+  <si>
+    <t>牛肉</t>
+  </si>
+  <si>
+    <t>lamb</t>
+  </si>
+  <si>
+    <t>蒸羊肉</t>
+  </si>
+  <si>
+    <t>cookies</t>
+  </si>
+  <si>
+    <t>饼干</t>
+  </si>
+  <si>
+    <t>flour</t>
+  </si>
+  <si>
+    <t>面粉</t>
+  </si>
+  <si>
+    <t>sugar</t>
+  </si>
+  <si>
+    <t>糖</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>鸡蛋</t>
+  </si>
+  <si>
+    <t>snack</t>
+  </si>
+  <si>
+    <t>零食</t>
+  </si>
+  <si>
+    <t>Vinegar</t>
+  </si>
+  <si>
+    <t>醋</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>油</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>盐</t>
+  </si>
+  <si>
+    <t>Seasoning</t>
+  </si>
+  <si>
+    <t>调料</t>
+  </si>
+  <si>
+    <t>sky</t>
+  </si>
+  <si>
+    <t>天空</t>
+  </si>
+  <si>
+    <t>cloud</t>
+  </si>
+  <si>
+    <t>云</t>
+  </si>
+  <si>
+    <t>beach</t>
+  </si>
+  <si>
+    <t>海滩</t>
+  </si>
+  <si>
+    <t>boat</t>
+  </si>
+  <si>
+    <t>船</t>
+  </si>
+  <si>
+    <t>lake</t>
+  </si>
+  <si>
+    <t>湖</t>
+  </si>
+  <si>
+    <t>ocean</t>
+  </si>
+  <si>
+    <t>海洋</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>风</t>
+  </si>
+  <si>
+    <t>mountain</t>
+  </si>
+  <si>
+    <t>山</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>岩石</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>树</t>
+  </si>
+  <si>
+    <t>river</t>
+  </si>
+  <si>
+    <t>河</t>
+  </si>
+  <si>
+    <t>grass</t>
+  </si>
+  <si>
+    <t>草</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>花</t>
+  </si>
+  <si>
+    <t>leaves</t>
+  </si>
+  <si>
+    <t>树叶</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>农场</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>田地</t>
+  </si>
+  <si>
+    <t>mud</t>
+  </si>
+  <si>
+    <t>泥</t>
+  </si>
+  <si>
+    <t>pond</t>
+  </si>
+  <si>
+    <t>池塘</t>
+  </si>
+  <si>
+    <t>sand</t>
+  </si>
+  <si>
+    <t>沙</t>
+  </si>
+  <si>
+    <t>rose</t>
+  </si>
+  <si>
+    <t>玫瑰</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>星星</t>
+  </si>
+  <si>
+    <t>sun</t>
+  </si>
+  <si>
+    <t>太阳</t>
+  </si>
+  <si>
+    <t>snow</t>
+  </si>
+  <si>
+    <t>下雪</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>下雨</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>冷的</t>
+  </si>
+  <si>
+    <t>warm</t>
+  </si>
+  <si>
+    <t>温暖的</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>热的</t>
+  </si>
+  <si>
+    <t>snowy</t>
+  </si>
+  <si>
+    <t>下雪的</t>
+  </si>
+  <si>
+    <t>rainy</t>
+  </si>
+  <si>
+    <t>下雨的</t>
+  </si>
+  <si>
+    <t>sunny</t>
+  </si>
+  <si>
+    <t>晴朗的</t>
+  </si>
+  <si>
+    <t>windy</t>
+  </si>
+  <si>
+    <t>刮风的</t>
+  </si>
+  <si>
+    <t>cloudy</t>
+  </si>
+  <si>
+    <t>多云的</t>
+  </si>
+  <si>
+    <t>Overcast</t>
+  </si>
+  <si>
+    <t>阴天</t>
+  </si>
+  <si>
+    <t>corner</t>
+  </si>
+  <si>
+    <t>角落</t>
+  </si>
+  <si>
+    <t>park</t>
+  </si>
+  <si>
+    <t>公园</t>
+  </si>
+  <si>
+    <t>play ground</t>
+  </si>
+  <si>
+    <t>游乐场</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>商店</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>世界</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>乡村</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>城市</t>
+  </si>
+  <si>
+    <t>hotel</t>
+  </si>
+  <si>
+    <t>饭店；旅馆</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>街道</t>
+  </si>
+  <si>
+    <t>hall</t>
+  </si>
+  <si>
+    <t>大厅</t>
+  </si>
+  <si>
+    <t>restaurant</t>
+  </si>
+  <si>
+    <t>餐馆</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>市场</t>
+  </si>
+  <si>
+    <t>mall</t>
+  </si>
+  <si>
+    <t>商业街</t>
+  </si>
+  <si>
+    <t>鸡</t>
+  </si>
+  <si>
+    <t>rooster</t>
+  </si>
+  <si>
+    <t>鸡；公鸡</t>
+  </si>
+  <si>
+    <t>cow</t>
+  </si>
+  <si>
+    <t>奶牛</t>
+  </si>
+  <si>
+    <t>duck</t>
+  </si>
+  <si>
+    <t>鸭子</t>
+  </si>
+  <si>
+    <t>pig</t>
+  </si>
+  <si>
+    <t>猪</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>猫</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>狗</t>
+  </si>
+  <si>
+    <t>goat</t>
+  </si>
+  <si>
+    <t>山羊</t>
+  </si>
+  <si>
+    <t>sheep</t>
+  </si>
+  <si>
+    <t>绵羊</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>rabbit</t>
+  </si>
+  <si>
+    <t>兔子</t>
+  </si>
+  <si>
+    <t>donkey</t>
+  </si>
+  <si>
+    <t>驴</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>老鼠</t>
+  </si>
+  <si>
+    <t>horse</t>
+  </si>
+  <si>
+    <t>马</t>
+  </si>
+  <si>
+    <t>snake</t>
+  </si>
+  <si>
+    <t>蛇</t>
+  </si>
+  <si>
+    <t>wing</t>
+  </si>
+  <si>
+    <t>翅膀</t>
+  </si>
+  <si>
+    <t>feather</t>
+  </si>
+  <si>
+    <t>羽毛</t>
+  </si>
+  <si>
+    <t>fur</t>
+  </si>
+  <si>
+    <t>皮毛</t>
+  </si>
+  <si>
+    <t>paws</t>
+  </si>
+  <si>
+    <t>爪子</t>
+  </si>
+  <si>
+    <t>tail</t>
+  </si>
+  <si>
+    <t>尾巴</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>狮子</t>
+  </si>
+  <si>
+    <t>tiger</t>
+  </si>
+  <si>
+    <t>老虎</t>
+  </si>
+  <si>
+    <t>elephant</t>
+  </si>
+  <si>
+    <t>大象</t>
+  </si>
+  <si>
+    <t>kangaroo</t>
+  </si>
+  <si>
+    <t>袋鼠</t>
+  </si>
+  <si>
+    <t>monkey</t>
+  </si>
+  <si>
+    <t>猴子</t>
+  </si>
+  <si>
+    <t>wolf</t>
+  </si>
+  <si>
+    <t>狼</t>
+  </si>
+  <si>
+    <t>camel</t>
+  </si>
+  <si>
+    <t>骆驼</t>
+  </si>
+  <si>
+    <t>ostrich</t>
+  </si>
+  <si>
+    <t>鸵鸟</t>
+  </si>
+  <si>
+    <t>giraffe</t>
+  </si>
+  <si>
+    <t>长颈鹿</t>
+  </si>
+  <si>
+    <t>panda</t>
+  </si>
+  <si>
+    <t>熊猫</t>
+  </si>
+  <si>
+    <t>zebra</t>
+  </si>
+  <si>
+    <t>斑马</t>
+  </si>
+  <si>
+    <t>dragon</t>
+  </si>
+  <si>
+    <t>龙</t>
+  </si>
+  <si>
+    <t>bike</t>
+  </si>
+  <si>
+    <t>自行车</t>
+  </si>
+  <si>
+    <t>wheel</t>
+  </si>
+  <si>
+    <t>车轮</t>
+  </si>
+  <si>
+    <t>tire</t>
+  </si>
+  <si>
+    <t>车胎</t>
+  </si>
+  <si>
+    <t>chain</t>
+  </si>
+  <si>
+    <t>车链</t>
+  </si>
+  <si>
+    <t>bell</t>
+  </si>
+  <si>
+    <t>铃铛</t>
+  </si>
+  <si>
+    <t>truck</t>
+  </si>
+  <si>
+    <t>大卡车</t>
+  </si>
+  <si>
+    <t>bus</t>
+  </si>
+  <si>
+    <t>公共汽车</t>
+  </si>
+  <si>
+    <t>cab</t>
+  </si>
+  <si>
+    <t>出租车</t>
+  </si>
+  <si>
+    <t>taxi</t>
+  </si>
+  <si>
+    <t>airplane</t>
+  </si>
+  <si>
+    <t>飞机</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>火车</t>
+  </si>
+  <si>
+    <t>ship</t>
+  </si>
+  <si>
+    <t>轮船</t>
+  </si>
+  <si>
+    <t>读音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.计算机单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loop</t>
+  </si>
+  <si>
+    <t>率波</t>
+  </si>
+  <si>
+    <t>循环</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>败客</t>
+  </si>
+  <si>
+    <t>后退</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>噢服</t>
+  </si>
+  <si>
+    <t>离开</t>
+  </si>
+  <si>
+    <t>pipeline</t>
+  </si>
+  <si>
+    <t>管道</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>i 特m</t>
+  </si>
+  <si>
+    <t>项目</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>空间</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>步棸；状态；阶段</t>
+  </si>
+  <si>
+    <t>verify</t>
+  </si>
+  <si>
+    <t>V儿发</t>
+  </si>
+  <si>
+    <t>验证；核实 ；证明</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>扣得</t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
+    <t>verification</t>
+  </si>
+  <si>
+    <t>外儿服K深</t>
+  </si>
+  <si>
+    <t>检查；验证；核实</t>
+  </si>
+  <si>
+    <t>Terminating</t>
+  </si>
+  <si>
+    <t>泰姆内特英</t>
+  </si>
+  <si>
+    <t>停止；终止；结束</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>赛吃</t>
+  </si>
+  <si>
+    <t>搜索，查找</t>
+  </si>
+  <si>
+    <t>pull</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>拉</t>
+  </si>
+  <si>
+    <t>push</t>
+  </si>
+  <si>
+    <t>破式</t>
+  </si>
+  <si>
+    <t>推</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>烦哦特</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>思科赛斯</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>backup</t>
+  </si>
+  <si>
+    <t>白客阿普</t>
+  </si>
+  <si>
+    <t>备份</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>软斯特</t>
+  </si>
+  <si>
+    <t>休息</t>
+  </si>
+  <si>
+    <t>daemon</t>
+  </si>
+  <si>
+    <t>滴们</t>
+  </si>
+  <si>
+    <t>守护进程</t>
+  </si>
+  <si>
+    <t>intellij iDEA</t>
+  </si>
+  <si>
+    <t>音讨论杰 ID儿</t>
+  </si>
+  <si>
+    <t>container</t>
+  </si>
+  <si>
+    <t>砍听那</t>
+  </si>
+  <si>
+    <t>容器</t>
+  </si>
+  <si>
+    <t>意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校类单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文具类单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭类单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字类单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体类单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间类单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣物类单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间类单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物类单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形状类单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然类单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物类单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地点类单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动物类单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通工具类单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九年级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高中一册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高中二册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高中三册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高中四册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高中五册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高中六册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高中七册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高中八册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高中九册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高中十册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高中十一册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学四级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学六级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>writable</t>
+  </si>
+  <si>
+    <t>可写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书，书籍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剥可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺子，直尺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V喔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pencil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铅笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘嗖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schoolbag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死狗白歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师，教师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>face</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菲斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脸，表情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ears</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳朵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼睛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼻子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mouth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bird</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薄得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抬阁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monkeys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盲k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>two</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>three</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>four</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛喔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>five</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泛五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>six</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛克斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砍呢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布拉克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也漏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补漏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>green</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡窝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱薄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盆儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阮得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>banana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百来娜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o润吃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜欢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思普润布特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpringBoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思普润课劳特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpringCloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings</t>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛停斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vmware</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VMv儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kwargs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩啊K斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hbase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H备斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kafka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡服卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rabbitMQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软特MQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cached</t>
+  </si>
+  <si>
+    <t>缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>旗帜，标示旗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福来可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>普润烦克死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置,安装路径的参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>清扫，打扫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>克林</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>特</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bonus </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Royalty </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logstash</t>
+  </si>
+  <si>
+    <t>Kibana</t>
+  </si>
+  <si>
+    <t>ELK的组件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K班纳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>露哥斯塔神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">eureka </t>
+  </si>
+  <si>
+    <t>由润卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>noon</t>
-  </si>
-  <si>
-    <t>中午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>evening</t>
-  </si>
-  <si>
-    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>night</t>
-  </si>
-  <si>
-    <t>夜晚</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>今天</t>
-  </si>
-  <si>
-    <t>tomorrow</t>
-  </si>
-  <si>
-    <t>明天</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>生日</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>假日;节日</t>
-  </si>
-  <si>
-    <t>Christmas</t>
-  </si>
-  <si>
-    <t>圣诞节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Monday</t>
-  </si>
-  <si>
-    <t>星期一</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>星期二</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>星期三</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>星期四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忙嘚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩斯嘚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涩斯嘚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突斯嘚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑嘚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Friday</t>
-  </si>
-  <si>
-    <t>星期五</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>星期六</t>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>星期日</t>
-  </si>
-  <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>一月</t>
-  </si>
-  <si>
-    <t>February</t>
-  </si>
-  <si>
-    <t>二月</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>三月</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>四月</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>五月</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>六月</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>七月</t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>八月</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>九月</t>
-  </si>
-  <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>十月</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>十一月</t>
-  </si>
-  <si>
-    <t>December</t>
-  </si>
-  <si>
-    <t>十二月</t>
-  </si>
-  <si>
-    <t>season</t>
-  </si>
-  <si>
-    <t>季节</t>
-  </si>
-  <si>
-    <t>spring</t>
-  </si>
-  <si>
-    <t>春天</t>
-  </si>
-  <si>
-    <t>summer</t>
-  </si>
-  <si>
-    <t>夏天</t>
-  </si>
-  <si>
-    <t>fall</t>
-  </si>
-  <si>
-    <t>秋天</t>
-  </si>
-  <si>
-    <t>winter</t>
-  </si>
-  <si>
-    <t>冬天</t>
-  </si>
-  <si>
-    <t>realtime</t>
-  </si>
-  <si>
-    <t>V哦泰姆</t>
-  </si>
-  <si>
-    <t>实时，即时</t>
-  </si>
-  <si>
-    <t>seconds</t>
-  </si>
-  <si>
-    <t>塞K死</t>
-  </si>
-  <si>
-    <t>秒</t>
-  </si>
-  <si>
-    <t>hour</t>
-  </si>
-  <si>
-    <t>啊我</t>
-  </si>
-  <si>
-    <t>小时</t>
-  </si>
-  <si>
-    <t>minute</t>
-  </si>
-  <si>
-    <t>美累特</t>
-  </si>
-  <si>
-    <t>分钟</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>人们</t>
-  </si>
-  <si>
-    <t>boy</t>
-  </si>
-  <si>
-    <t>男孩</t>
-  </si>
-  <si>
-    <t>girl</t>
-  </si>
-  <si>
-    <t>女孩</t>
-  </si>
-  <si>
-    <t>Chinese</t>
-  </si>
-  <si>
-    <t>中国人</t>
-  </si>
-  <si>
-    <t>doctor</t>
-  </si>
-  <si>
-    <t>医生</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>朋友</t>
-  </si>
-  <si>
-    <t>neighbor</t>
-  </si>
-  <si>
-    <t>邻居</t>
-  </si>
-  <si>
-    <t>chshier</t>
-  </si>
-  <si>
-    <t>出纳员</t>
-  </si>
-  <si>
-    <t>clerk</t>
-  </si>
-  <si>
-    <t>办事员</t>
-  </si>
-  <si>
-    <t>waitress</t>
-  </si>
-  <si>
-    <t>女服务员</t>
-  </si>
-  <si>
-    <t>waiter</t>
-  </si>
-  <si>
-    <t>男服务员</t>
-  </si>
-  <si>
-    <t>actor</t>
-  </si>
-  <si>
-    <t>男演员；演员</t>
-  </si>
-  <si>
-    <t>actress</t>
-  </si>
-  <si>
-    <t>女演员</t>
-  </si>
-  <si>
-    <t>businessman</t>
-  </si>
-  <si>
-    <t>商人</t>
-  </si>
-  <si>
-    <t>businesswoman</t>
-  </si>
-  <si>
-    <t>女商人</t>
-  </si>
-  <si>
-    <t>judge</t>
-  </si>
-  <si>
-    <t>法官</t>
-  </si>
-  <si>
-    <t>baby</t>
-  </si>
-  <si>
-    <t>婴儿</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>孩子</t>
-  </si>
-  <si>
-    <t>children</t>
-  </si>
-  <si>
-    <t>孩子们</t>
-  </si>
-  <si>
-    <t>man</t>
-  </si>
-  <si>
-    <t>男人</t>
-  </si>
-  <si>
-    <t>men</t>
-  </si>
-  <si>
-    <t>男人们</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>女人</t>
-  </si>
-  <si>
-    <t>women</t>
-  </si>
-  <si>
-    <t>女人们</t>
-  </si>
-  <si>
-    <t>Santa</t>
-  </si>
-  <si>
-    <t>圣诞老人</t>
-  </si>
-  <si>
-    <t>singer</t>
-  </si>
-  <si>
-    <t>歌手</t>
-  </si>
-  <si>
-    <t>shape</t>
-  </si>
-  <si>
-    <t>形状</t>
-  </si>
-  <si>
-    <t>circle</t>
-  </si>
-  <si>
-    <t>圆圈</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>直线</t>
-  </si>
-  <si>
-    <t>reatangle</t>
-  </si>
-  <si>
-    <t>长方形</t>
-  </si>
-  <si>
-    <t>square</t>
-  </si>
-  <si>
-    <t>方形</t>
-  </si>
-  <si>
-    <t>triangle</t>
-  </si>
-  <si>
-    <t>三角形</t>
-  </si>
-  <si>
-    <t>breakfast</t>
-  </si>
-  <si>
-    <t>早饭</t>
-  </si>
-  <si>
-    <t>supper</t>
-  </si>
-  <si>
-    <t>晚饭</t>
-  </si>
-  <si>
-    <t>lunch</t>
-  </si>
-  <si>
-    <t>午饭</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>肉</t>
-  </si>
-  <si>
-    <t>pork</t>
-  </si>
-  <si>
-    <t>猪肉</t>
-  </si>
-  <si>
-    <t>chicken</t>
-  </si>
-  <si>
-    <t>鸡肉</t>
-  </si>
-  <si>
-    <t>beef</t>
-  </si>
-  <si>
-    <t>牛肉</t>
-  </si>
-  <si>
-    <t>lamb</t>
-  </si>
-  <si>
-    <t>蒸羊肉</t>
-  </si>
-  <si>
-    <t>cookies</t>
-  </si>
-  <si>
-    <t>饼干</t>
-  </si>
-  <si>
-    <t>flour</t>
-  </si>
-  <si>
-    <t>面粉</t>
-  </si>
-  <si>
-    <t>sugar</t>
-  </si>
-  <si>
-    <t>糖</t>
-  </si>
-  <si>
-    <t>egg</t>
-  </si>
-  <si>
-    <t>鸡蛋</t>
-  </si>
-  <si>
-    <t>snack</t>
-  </si>
-  <si>
-    <t>零食</t>
-  </si>
-  <si>
-    <t>Vinegar</t>
-  </si>
-  <si>
-    <t>醋</t>
-  </si>
-  <si>
-    <t>oil</t>
-  </si>
-  <si>
-    <t>油</t>
-  </si>
-  <si>
-    <t>salt</t>
-  </si>
-  <si>
-    <t>盐</t>
-  </si>
-  <si>
-    <t>Seasoning</t>
-  </si>
-  <si>
-    <t>调料</t>
-  </si>
-  <si>
-    <t>sky</t>
-  </si>
-  <si>
-    <t>天空</t>
-  </si>
-  <si>
-    <t>cloud</t>
-  </si>
-  <si>
-    <t>云</t>
-  </si>
-  <si>
-    <t>beach</t>
-  </si>
-  <si>
-    <t>海滩</t>
-  </si>
-  <si>
-    <t>boat</t>
-  </si>
-  <si>
-    <t>船</t>
-  </si>
-  <si>
-    <t>lake</t>
-  </si>
-  <si>
-    <t>湖</t>
-  </si>
-  <si>
-    <t>ocean</t>
-  </si>
-  <si>
-    <t>海洋</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>风</t>
-  </si>
-  <si>
-    <t>mountain</t>
-  </si>
-  <si>
-    <t>山</t>
-  </si>
-  <si>
-    <t>rock</t>
-  </si>
-  <si>
-    <t>岩石</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>树</t>
-  </si>
-  <si>
-    <t>river</t>
-  </si>
-  <si>
-    <t>河</t>
-  </si>
-  <si>
-    <t>grass</t>
-  </si>
-  <si>
-    <t>草</t>
-  </si>
-  <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>花</t>
-  </si>
-  <si>
-    <t>leaves</t>
-  </si>
-  <si>
-    <t>树叶</t>
-  </si>
-  <si>
-    <t>farm</t>
-  </si>
-  <si>
-    <t>农场</t>
-  </si>
-  <si>
-    <t>field</t>
-  </si>
-  <si>
-    <t>田地</t>
-  </si>
-  <si>
-    <t>mud</t>
-  </si>
-  <si>
-    <t>泥</t>
-  </si>
-  <si>
-    <t>pond</t>
-  </si>
-  <si>
-    <t>池塘</t>
-  </si>
-  <si>
-    <t>sand</t>
-  </si>
-  <si>
-    <t>沙</t>
-  </si>
-  <si>
-    <t>rose</t>
-  </si>
-  <si>
-    <t>玫瑰</t>
-  </si>
-  <si>
-    <t>star</t>
-  </si>
-  <si>
-    <t>星星</t>
-  </si>
-  <si>
-    <t>sun</t>
-  </si>
-  <si>
-    <t>太阳</t>
-  </si>
-  <si>
-    <t>snow</t>
-  </si>
-  <si>
-    <t>下雪</t>
-  </si>
-  <si>
-    <t>rain</t>
-  </si>
-  <si>
-    <t>下雨</t>
-  </si>
-  <si>
-    <t>cold</t>
-  </si>
-  <si>
-    <t>冷的</t>
-  </si>
-  <si>
-    <t>warm</t>
-  </si>
-  <si>
-    <t>温暖的</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>热的</t>
-  </si>
-  <si>
-    <t>snowy</t>
-  </si>
-  <si>
-    <t>下雪的</t>
-  </si>
-  <si>
-    <t>rainy</t>
-  </si>
-  <si>
-    <t>下雨的</t>
-  </si>
-  <si>
-    <t>sunny</t>
-  </si>
-  <si>
-    <t>晴朗的</t>
-  </si>
-  <si>
-    <t>windy</t>
-  </si>
-  <si>
-    <t>刮风的</t>
-  </si>
-  <si>
-    <t>cloudy</t>
-  </si>
-  <si>
-    <t>多云的</t>
-  </si>
-  <si>
-    <t>Overcast</t>
-  </si>
-  <si>
-    <t>阴天</t>
-  </si>
-  <si>
-    <t>corner</t>
-  </si>
-  <si>
-    <t>角落</t>
-  </si>
-  <si>
-    <t>park</t>
-  </si>
-  <si>
-    <t>公园</t>
-  </si>
-  <si>
-    <t>play ground</t>
-  </si>
-  <si>
-    <t>游乐场</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>商店</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>世界</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>乡村</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>城市</t>
-  </si>
-  <si>
-    <t>hotel</t>
-  </si>
-  <si>
-    <t>饭店；旅馆</t>
-  </si>
-  <si>
-    <t>street</t>
-  </si>
-  <si>
-    <t>街道</t>
-  </si>
-  <si>
-    <t>hall</t>
-  </si>
-  <si>
-    <t>大厅</t>
-  </si>
-  <si>
-    <t>restaurant</t>
-  </si>
-  <si>
-    <t>餐馆</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>市场</t>
-  </si>
-  <si>
-    <t>mall</t>
-  </si>
-  <si>
-    <t>商业街</t>
-  </si>
-  <si>
-    <t>鸡</t>
-  </si>
-  <si>
-    <t>rooster</t>
-  </si>
-  <si>
-    <t>鸡；公鸡</t>
-  </si>
-  <si>
-    <t>cow</t>
-  </si>
-  <si>
-    <t>奶牛</t>
-  </si>
-  <si>
-    <t>duck</t>
-  </si>
-  <si>
-    <t>鸭子</t>
-  </si>
-  <si>
-    <t>pig</t>
-  </si>
-  <si>
-    <t>猪</t>
-  </si>
-  <si>
-    <t>cat</t>
-  </si>
-  <si>
-    <t>猫</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>狗</t>
-  </si>
-  <si>
-    <t>goat</t>
-  </si>
-  <si>
-    <t>山羊</t>
-  </si>
-  <si>
-    <t>sheep</t>
-  </si>
-  <si>
-    <t>绵羊</t>
-  </si>
-  <si>
-    <t>bird</t>
-  </si>
-  <si>
-    <t>rabbit</t>
-  </si>
-  <si>
-    <t>兔子</t>
-  </si>
-  <si>
-    <t>donkey</t>
-  </si>
-  <si>
-    <t>驴</t>
-  </si>
-  <si>
-    <t>mouse</t>
-  </si>
-  <si>
-    <t>老鼠</t>
-  </si>
-  <si>
-    <t>horse</t>
-  </si>
-  <si>
-    <t>马</t>
-  </si>
-  <si>
-    <t>snake</t>
-  </si>
-  <si>
-    <t>蛇</t>
-  </si>
-  <si>
-    <t>wing</t>
-  </si>
-  <si>
-    <t>翅膀</t>
-  </si>
-  <si>
-    <t>feather</t>
-  </si>
-  <si>
-    <t>羽毛</t>
-  </si>
-  <si>
-    <t>fur</t>
-  </si>
-  <si>
-    <t>皮毛</t>
-  </si>
-  <si>
-    <t>paws</t>
-  </si>
-  <si>
-    <t>爪子</t>
-  </si>
-  <si>
-    <t>tail</t>
-  </si>
-  <si>
-    <t>尾巴</t>
-  </si>
-  <si>
-    <t>lion</t>
-  </si>
-  <si>
-    <t>狮子</t>
-  </si>
-  <si>
-    <t>tiger</t>
-  </si>
-  <si>
-    <t>老虎</t>
-  </si>
-  <si>
-    <t>elephant</t>
-  </si>
-  <si>
-    <t>大象</t>
-  </si>
-  <si>
-    <t>kangaroo</t>
-  </si>
-  <si>
-    <t>袋鼠</t>
-  </si>
-  <si>
-    <t>monkey</t>
-  </si>
-  <si>
-    <t>猴子</t>
-  </si>
-  <si>
-    <t>wolf</t>
-  </si>
-  <si>
-    <t>狼</t>
-  </si>
-  <si>
-    <t>camel</t>
-  </si>
-  <si>
-    <t>骆驼</t>
-  </si>
-  <si>
-    <t>ostrich</t>
-  </si>
-  <si>
-    <t>鸵鸟</t>
-  </si>
-  <si>
-    <t>giraffe</t>
-  </si>
-  <si>
-    <t>长颈鹿</t>
-  </si>
-  <si>
-    <t>panda</t>
-  </si>
-  <si>
-    <t>熊猫</t>
-  </si>
-  <si>
-    <t>zebra</t>
-  </si>
-  <si>
-    <t>斑马</t>
-  </si>
-  <si>
-    <t>dragon</t>
-  </si>
-  <si>
-    <t>龙</t>
-  </si>
-  <si>
-    <t>bike</t>
-  </si>
-  <si>
-    <t>自行车</t>
-  </si>
-  <si>
-    <t>wheel</t>
-  </si>
-  <si>
-    <t>车轮</t>
-  </si>
-  <si>
-    <t>tire</t>
-  </si>
-  <si>
-    <t>车胎</t>
-  </si>
-  <si>
-    <t>chain</t>
-  </si>
-  <si>
-    <t>车链</t>
-  </si>
-  <si>
-    <t>bell</t>
-  </si>
-  <si>
-    <t>铃铛</t>
-  </si>
-  <si>
-    <t>truck</t>
-  </si>
-  <si>
-    <t>大卡车</t>
-  </si>
-  <si>
-    <t>bus</t>
-  </si>
-  <si>
-    <t>公共汽车</t>
-  </si>
-  <si>
-    <t>cab</t>
-  </si>
-  <si>
-    <t>出租车</t>
-  </si>
-  <si>
-    <t>taxi</t>
-  </si>
-  <si>
-    <t>airplane</t>
-  </si>
-  <si>
-    <t>飞机</t>
-  </si>
-  <si>
-    <t>train</t>
-  </si>
-  <si>
-    <t>火车</t>
-  </si>
-  <si>
-    <t>ship</t>
-  </si>
-  <si>
-    <t>轮船</t>
-  </si>
-  <si>
-    <t>读音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18.计算机单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loop</t>
-  </si>
-  <si>
-    <t>率波</t>
-  </si>
-  <si>
-    <t>循环</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>败客</t>
-  </si>
-  <si>
-    <t>后退</t>
-  </si>
-  <si>
-    <t>off</t>
-  </si>
-  <si>
-    <t>噢服</t>
-  </si>
-  <si>
-    <t>离开</t>
-  </si>
-  <si>
-    <t>pipeline</t>
-  </si>
-  <si>
-    <t>管道</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>i 特m</t>
-  </si>
-  <si>
-    <t>项目</t>
-  </si>
-  <si>
-    <t>space</t>
-  </si>
-  <si>
-    <t>空间</t>
-  </si>
-  <si>
-    <t>stage</t>
-  </si>
-  <si>
-    <t>步棸；状态；阶段</t>
-  </si>
-  <si>
-    <t>verify</t>
-  </si>
-  <si>
-    <t>V儿发</t>
-  </si>
-  <si>
-    <t>验证；核实 ；证明</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>扣得</t>
-  </si>
-  <si>
-    <t>代码</t>
-  </si>
-  <si>
-    <t>verification</t>
-  </si>
-  <si>
-    <t>外儿服K深</t>
-  </si>
-  <si>
-    <t>检查；验证；核实</t>
-  </si>
-  <si>
-    <t>Terminating</t>
-  </si>
-  <si>
-    <t>泰姆内特英</t>
-  </si>
-  <si>
-    <t>停止；终止；结束</t>
-  </si>
-  <si>
-    <t>search</t>
-  </si>
-  <si>
-    <t>赛吃</t>
-  </si>
-  <si>
-    <t>搜索，查找</t>
-  </si>
-  <si>
-    <t>pull</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>拉</t>
-  </si>
-  <si>
-    <t>push</t>
-  </si>
-  <si>
-    <t>破式</t>
-  </si>
-  <si>
-    <t>推</t>
-  </si>
-  <si>
-    <t>failed</t>
-  </si>
-  <si>
-    <t>烦哦特</t>
-  </si>
-  <si>
-    <t>失败</t>
-  </si>
-  <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>思科赛斯</t>
-  </si>
-  <si>
-    <t>成功</t>
-  </si>
-  <si>
-    <t>backup</t>
-  </si>
-  <si>
-    <t>白客阿普</t>
-  </si>
-  <si>
-    <t>备份</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>软斯特</t>
-  </si>
-  <si>
-    <t>休息</t>
-  </si>
-  <si>
-    <t>daemon</t>
-  </si>
-  <si>
-    <t>滴们</t>
-  </si>
-  <si>
-    <t>守护进程</t>
-  </si>
-  <si>
-    <t>intellij iDEA</t>
-  </si>
-  <si>
-    <t>音讨论杰 ID儿</t>
-  </si>
-  <si>
-    <t>container</t>
-  </si>
-  <si>
-    <t>砍听那</t>
-  </si>
-  <si>
-    <t>容器</t>
-  </si>
-  <si>
-    <t>意思</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学校类单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文具类单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家庭类单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字类单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身体类单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间类单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衣物类单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间类单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人物类单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>形状类单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自然类单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食物类单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地点类单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动物类单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通工具类单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>六年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>九年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高中一册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高中二册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高中三册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高中四册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高中五册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高中六册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高中七册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高中八册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高中九册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高中十册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高中十一册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大学四级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大学六级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单词数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>writable</t>
-  </si>
-  <si>
-    <t>可写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>book</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>书，书籍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剥可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ruler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尺子，直尺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V喔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pencil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铅笔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盘嗖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>schoolbag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>书包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死狗白歌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>teacher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题切</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老师，教师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>face</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菲斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脸，表情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ears</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耳朵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>眼睛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艾儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nose</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鼻子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mouth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纳福</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀客</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bird</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>薄得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老虎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抬阁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monkeys</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猴子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盲k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凯特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>two</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>three</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>four</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛喔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丝润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>five</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泛五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>six</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>六</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赛克斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seven</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赛问</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>九</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>难恩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ten</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>砍呢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>black</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布拉克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yellow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>也漏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>blue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补漏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>red</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>green</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡窝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>colour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苹果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱薄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盆儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阮得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>banana</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香蕉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百来娜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>橙子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o润吃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>like</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喜欢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>莱克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>思普润布特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpringBoot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>思普润课劳特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpringCloud</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settings</t>
-  </si>
-  <si>
-    <t>设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赛停斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vmware</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VMv儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟机软件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kwargs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关键字参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扩啊K斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hbase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H备斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kafka</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡服卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rabbitMQ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软特MQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弗赖嘚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洒特嘚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>味课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2964,7 +3111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3025,6 +3172,14 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -3483,8 +3638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M543"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="E196" sqref="E196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -3517,27 +3672,27 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -3552,19 +3707,19 @@
       </c>
       <c r="E2" s="10"/>
       <c r="G2" s="8" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
@@ -3578,22 +3733,22 @@
         <v>23</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
@@ -3607,19 +3762,19 @@
         <v>25</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
@@ -3633,16 +3788,16 @@
         <v>27</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
@@ -3656,22 +3811,22 @@
         <v>29</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
@@ -3685,16 +3840,16 @@
         <v>31</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
@@ -3708,16 +3863,16 @@
         <v>33</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
@@ -3731,75 +3886,108 @@
         <v>35</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="G10" s="8" t="s">
+        <v>923</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>925</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>924</v>
+      </c>
       <c r="K10" s="8" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="G11" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>937</v>
+      </c>
       <c r="K11" s="8" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="G12" s="8" t="s">
+        <v>934</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>936</v>
+      </c>
       <c r="K12" s="8" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="G13" s="8" t="s">
+        <v>938</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>939</v>
+      </c>
       <c r="K13" s="8" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
@@ -3807,13 +3995,13 @@
         <v>15</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
@@ -3821,13 +4009,13 @@
         <v>16</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
@@ -3835,16 +4023,16 @@
         <v>17</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
@@ -3859,13 +4047,13 @@
       </c>
       <c r="E17" s="10"/>
       <c r="K17" s="8" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
@@ -3879,18 +4067,18 @@
         <v>39</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>40</v>
@@ -3899,13 +4087,13 @@
         <v>41</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
@@ -3916,13 +4104,13 @@
         <v>43</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
@@ -3933,10 +4121,10 @@
         <v>45</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
@@ -3947,13 +4135,13 @@
         <v>47</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
@@ -3964,13 +4152,13 @@
         <v>49</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
@@ -3980,6 +4168,15 @@
       <c r="D24" s="8" t="s">
         <v>51</v>
       </c>
+      <c r="K24" s="8" t="s">
+        <v>914</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>915</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C25" s="8" t="s">
@@ -3988,6 +4185,15 @@
       <c r="D25" s="8" t="s">
         <v>53</v>
       </c>
+      <c r="K25" s="8" t="s">
+        <v>917</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>918</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>919</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C26" s="8" t="s">
@@ -3996,6 +4202,15 @@
       <c r="D26" s="8" t="s">
         <v>55</v>
       </c>
+      <c r="K26" s="8" t="s">
+        <v>920</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>921</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>922</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C27" s="8" t="s">
@@ -4004,6 +4219,15 @@
       <c r="D27" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="K27" s="8" t="s">
+        <v>926</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>927</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>928</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C28" s="8" t="s">
@@ -4012,6 +4236,12 @@
       <c r="D28" s="8" t="s">
         <v>59</v>
       </c>
+      <c r="K28" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>930</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C29" s="8" t="s">
@@ -4020,6 +4250,12 @@
       <c r="D29" s="8" t="s">
         <v>61</v>
       </c>
+      <c r="K29" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>932</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C30" s="8" t="s">
@@ -4039,7 +4275,7 @@
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C34" s="11" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.15">
@@ -4141,7 +4377,7 @@
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C49" s="11" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.15">
@@ -4275,7 +4511,7 @@
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C69" s="11" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.15">
@@ -4625,7 +4861,7 @@
     </row>
     <row r="119" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C119" s="11" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="120" spans="3:5" x14ac:dyDescent="0.15">
@@ -4783,7 +5019,7 @@
     </row>
     <row r="140" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C140" s="11" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="141" spans="3:5" x14ac:dyDescent="0.15">
@@ -4997,7 +5233,7 @@
     </row>
     <row r="170" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C170" s="11" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="171" spans="3:5" x14ac:dyDescent="0.15">
@@ -5147,7 +5383,7 @@
     </row>
     <row r="190" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C190" s="11" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="191" spans="3:5" x14ac:dyDescent="0.15">
@@ -5167,15 +5403,18 @@
         <v>332</v>
       </c>
     </row>
-    <row r="193" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="193" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C193" s="8" t="s">
         <v>333</v>
       </c>
       <c r="D193" s="8" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="194" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="E193" s="8" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="194" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C194" s="8" t="s">
         <v>335</v>
       </c>
@@ -5183,7 +5422,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="195" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="195" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C195" s="8" t="s">
         <v>337</v>
       </c>
@@ -5191,7 +5430,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="196" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="196" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C196" s="8" t="s">
         <v>339</v>
       </c>
@@ -5199,1463 +5438,1484 @@
         <v>340</v>
       </c>
     </row>
-    <row r="197" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="197" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C197" s="8" t="s">
+        <v>940</v>
+      </c>
+      <c r="D197" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="D197" s="8" t="s">
+    </row>
+    <row r="198" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C198" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="D198" s="8" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="198" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C198" s="8" t="s">
+    <row r="199" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C199" s="8" t="s">
+        <v>942</v>
+      </c>
+      <c r="D199" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="D198" s="8" t="s">
+    </row>
+    <row r="200" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C200" s="8" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="199" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C199" s="8" t="s">
+      <c r="D200" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="D199" s="8" t="s">
+    </row>
+    <row r="201" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C201" s="8" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="200" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C200" s="8" t="s">
+      <c r="D201" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="D200" s="8" t="s">
+    </row>
+    <row r="202" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C202" s="8" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="201" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C201" s="8" t="s">
+      <c r="D202" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="D201" s="8" t="s">
+    </row>
+    <row r="203" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C203" s="8" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="202" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C202" s="8" t="s">
+      <c r="D203" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="D202" s="8" t="s">
+    </row>
+    <row r="204" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C204" s="8" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="203" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C203" s="8" t="s">
+      <c r="D204" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="D203" s="8" t="s">
+    </row>
+    <row r="205" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C205" s="8" t="s">
+        <v>943</v>
+      </c>
+      <c r="D205" s="8" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="204" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C204" s="8" t="s">
+      <c r="E205" s="8" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="206" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C206" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="D204" s="8" t="s">
+      <c r="D206" s="8" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="205" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C205" s="8" t="s">
+      <c r="E206" s="8" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="207" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C207" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="D205" s="8" t="s">
+      <c r="D207" s="8" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="206" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C206" s="8" t="s">
+      <c r="E207" s="8" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="208" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C208" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="D206" s="8" t="s">
+      <c r="D208" s="8" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="207" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C207" s="8" t="s">
+      <c r="E208" s="8" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="209" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C209" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="D209" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="D207" s="8" t="s">
+      <c r="E209" s="8" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="210" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C210" s="8" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="208" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C208" s="8" t="s">
+      <c r="D210" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="D208" s="8" t="s">
+      <c r="E210" s="8" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="211" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C211" s="8" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="209" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C209" s="8" t="s">
+      <c r="D211" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="D209" s="8" t="s">
+      <c r="E211" s="8" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="212" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C212" s="8" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="210" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C210" s="8" t="s">
+      <c r="D212" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="D210" s="8" t="s">
+    </row>
+    <row r="213" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C213" s="8" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="211" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C211" s="8" t="s">
+      <c r="D213" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="D211" s="8" t="s">
+    </row>
+    <row r="214" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C214" s="8" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="212" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C212" s="8" t="s">
+      <c r="D214" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="D212" s="8" t="s">
+    </row>
+    <row r="215" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C215" s="8" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="213" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C213" s="8" t="s">
+      <c r="D215" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="D213" s="8" t="s">
+    </row>
+    <row r="216" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C216" s="8" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="214" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C214" s="8" t="s">
+      <c r="D216" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="D214" s="8" t="s">
+    </row>
+    <row r="217" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C217" s="8" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="215" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C215" s="8" t="s">
+      <c r="D217" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="D215" s="8" t="s">
+    </row>
+    <row r="218" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C218" s="8" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="216" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C216" s="8" t="s">
+      <c r="D218" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="D216" s="8" t="s">
+    </row>
+    <row r="219" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C219" s="8" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="217" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C217" s="8" t="s">
+      <c r="D219" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="D217" s="8" t="s">
+    </row>
+    <row r="220" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C220" s="8" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="218" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C218" s="8" t="s">
+      <c r="D220" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="D218" s="8" t="s">
+    </row>
+    <row r="221" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C221" s="8" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="219" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C219" s="8" t="s">
+      <c r="D221" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="D219" s="8" t="s">
+    </row>
+    <row r="222" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C222" s="8" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="220" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C220" s="8" t="s">
+      <c r="D222" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="D220" s="8" t="s">
+    </row>
+    <row r="223" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C223" s="8" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="221" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C221" s="8" t="s">
+      <c r="D223" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="D221" s="8" t="s">
+    </row>
+    <row r="224" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C224" s="8" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="222" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C222" s="8" t="s">
+      <c r="D224" s="8" t="s">
         <v>391</v>
-      </c>
-      <c r="D222" s="8" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="223" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C223" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="D223" s="8" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="224" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C224" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="D224" s="8" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="225" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C225" s="8" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="226" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C226" s="8" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="227" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C227" s="8" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="228" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C228" s="8" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="229" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C229" s="8" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E229" s="8" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="230" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C230" s="8" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E230" s="8" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="231" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C231" s="8" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E231" s="8" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="232" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C232" s="8" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E232" s="8" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="240" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C240" s="11" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="241" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C241" s="10" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D241" s="10" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E241" s="10"/>
     </row>
     <row r="242" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C242" s="8" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="243" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C243" s="8" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="244" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C244" s="8" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="245" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C245" s="8" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="246" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C246" s="8" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D246" s="8" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="247" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C247" s="8" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D247" s="8" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="248" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C248" s="8" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D248" s="8" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="249" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C249" s="8" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D249" s="8" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="250" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C250" s="8" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D250" s="8" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="251" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C251" s="8" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D251" s="8" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="252" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C252" s="8" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="253" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C253" s="8" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D253" s="8" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="254" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C254" s="8" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="255" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C255" s="8" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D255" s="8" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="256" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C256" s="8" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D256" s="8" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="257" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C257" s="8" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D257" s="8" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="258" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C258" s="8" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D258" s="8" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="259" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C259" s="8" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D259" s="8" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="260" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C260" s="8" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D260" s="8" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="261" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C261" s="8" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="262" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C262" s="8" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D262" s="8" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="263" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C263" s="8" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D263" s="8" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="264" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C264" s="8" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D264" s="8" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="265" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C265" s="8" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D265" s="8" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="280" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C280" s="11" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="281" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C281" s="10" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D281" s="10" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E281" s="10"/>
     </row>
     <row r="282" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C282" s="8" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D282" s="8" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="283" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C283" s="8" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D283" s="8" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="284" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C284" s="8" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D284" s="8" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="285" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C285" s="8" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D285" s="8" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="286" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C286" s="8" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D286" s="8" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="330" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C330" s="11" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="331" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C331" s="10" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D331" s="10" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="E331" s="10"/>
     </row>
     <row r="332" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C332" s="8" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D332" s="8" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="333" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C333" s="8" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D333" s="8" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="334" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C334" s="8" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D334" s="8" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="335" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C335" s="8" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D335" s="8" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="336" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C336" s="8" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D336" s="8" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="337" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C337" s="8" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D337" s="8" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="338" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C338" s="8" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D338" s="8" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="339" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C339" s="8" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="D339" s="8" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="340" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C340" s="8" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D340" s="8" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="341" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C341" s="8" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D341" s="8" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="342" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C342" s="8" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D342" s="8" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="343" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C343" s="8" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D343" s="8" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="344" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C344" s="8" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D344" s="8" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="345" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C345" s="8" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D345" s="8" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="346" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C346" s="8" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D346" s="8" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="347" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C347" s="8" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D347" s="8" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="348" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C348" s="8" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D348" s="8" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="349" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C349" s="8" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D349" s="8" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="350" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C350" s="8" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D350" s="8" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="351" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C351" s="8" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D351" s="8" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="352" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C352" s="8" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D352" s="8" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="353" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C353" s="8" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D353" s="8" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="354" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C354" s="8" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D354" s="8" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="355" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C355" s="8" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D355" s="8" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="356" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C356" s="8" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D356" s="8" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="357" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C357" s="8" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D357" s="8" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="358" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C358" s="8" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="D358" s="8" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="359" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C359" s="8" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D359" s="8" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="360" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C360" s="8" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="D360" s="8" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="361" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C361" s="8" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D361" s="8" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="362" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C362" s="8" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D362" s="8" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="363" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C363" s="8" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="D363" s="8" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="364" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C364" s="8" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="D364" s="8" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="380" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C380" s="11" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="381" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C381" s="10" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D381" s="10" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E381" s="10"/>
     </row>
     <row r="382" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C382" s="8" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D382" s="8" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="383" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C383" s="8" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D383" s="8" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="384" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C384" s="8" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D384" s="8" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="385" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C385" s="8" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D385" s="8" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="386" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C386" s="8" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D386" s="8" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="387" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C387" s="8" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D387" s="8" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="388" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C388" s="8" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D388" s="8" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="389" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C389" s="8" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D389" s="8" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="390" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C390" s="8" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D390" s="8" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="391" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C391" s="8" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D391" s="8" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="392" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C392" s="8" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D392" s="8" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="393" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C393" s="8" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D393" s="8" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="394" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C394" s="8" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D394" s="8" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="395" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C395" s="8" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D395" s="8" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="396" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C396" s="8" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D396" s="8" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="397" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C397" s="8" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D397" s="8" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="430" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C430" s="11" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="431" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C431" s="10" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D431" s="10" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="E431" s="10"/>
     </row>
     <row r="432" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C432" s="8" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="D432" s="8" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="433" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C433" s="8" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="D433" s="8" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="434" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C434" s="8" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="D434" s="8" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="435" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C435" s="8" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="D435" s="8" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="436" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C436" s="8" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D436" s="8" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="437" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C437" s="8" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D437" s="8" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="438" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C438" s="8" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D438" s="8" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="439" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C439" s="8" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D439" s="8" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="440" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C440" s="8" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D440" s="8" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="441" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C441" s="8" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D441" s="8" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="442" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C442" s="8" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="D442" s="8" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="443" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C443" s="8" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D443" s="8" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="480" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C480" s="11" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="481" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C481" s="10" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D481" s="10" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="E481" s="10"/>
     </row>
     <row r="482" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C482" s="8" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="D482" s="8" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="483" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C483" s="8" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="D483" s="8" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="484" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C484" s="8" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D484" s="8" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="485" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C485" s="8" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="D485" s="8" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="486" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C486" s="8" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D486" s="8" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="487" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C487" s="8" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D487" s="8" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="488" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C488" s="8" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="D488" s="8" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="489" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C489" s="8" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="D489" s="8" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="490" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C490" s="8" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="491" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C491" s="8" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="D491" s="8" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="492" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C492" s="8" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="D492" s="8" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="493" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C493" s="8" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D493" s="8" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="494" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C494" s="8" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D494" s="8" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="495" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C495" s="8" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="D495" s="8" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="496" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C496" s="8" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="D496" s="8" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="497" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C497" s="8" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D497" s="8" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="498" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C498" s="8" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="D498" s="8" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="499" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C499" s="8" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="D499" s="8" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="500" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C500" s="8" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="D500" s="8" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="501" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C501" s="8" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="D501" s="8" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="502" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C502" s="8" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D502" s="8" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="503" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C503" s="8" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D503" s="8" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="504" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C504" s="8" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="D504" s="8" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="505" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C505" s="8" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D505" s="8" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="506" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C506" s="8" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D506" s="8" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="507" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C507" s="8" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="D507" s="8" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="508" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C508" s="8" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D508" s="8" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
     <row r="509" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C509" s="8" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="D509" s="8" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="510" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C510" s="8" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="D510" s="8" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="512" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C512" s="8" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="D512" s="8" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="513" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C513" s="8" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="D513" s="8" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="530" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C530" s="11" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="531" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C531" s="10" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D531" s="10" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="E531" s="10"/>
     </row>
     <row r="532" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C532" s="8" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="D532" s="8" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="533" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C533" s="8" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="D533" s="8" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="534" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C534" s="8" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="D534" s="8" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="535" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C535" s="8" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D535" s="8" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="536" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C536" s="8" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D536" s="8" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="537" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C537" s="8" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="D537" s="8" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="538" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C538" s="8" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="D538" s="8" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="539" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C539" s="8" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D539" s="8" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="540" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C540" s="8" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D540" s="8" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="541" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C541" s="8" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="D541" s="8" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
     </row>
     <row r="542" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C542" s="8" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D542" s="8" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="543" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C543" s="8" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="D543" s="8" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -6710,10 +6970,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C1" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -6722,10 +6982,10 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="G1" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -6734,10 +6994,10 @@
         <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="K1" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>0</v>
@@ -6746,10 +7006,10 @@
         <v>1</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="O1" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>0</v>
@@ -6758,455 +7018,455 @@
         <v>1</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="D18" s="14" t="s">
+        <v>838</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>839</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>843</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>844</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D23" s="14" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" s="14" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D25" s="14" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D26" s="14" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D27" s="14" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" s="14" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D29" s="14" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D30" s="14" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D31" s="14" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" s="14" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D33" s="14" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D34" s="14" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D35" s="14" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D36" s="14" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
     </row>
   </sheetData>
